--- a/data/2023/fid/FID-GEO-DE-7.xlsx
+++ b/data/2023/fid/FID-GEO-DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="209">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,12 +91,543 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>2637592-8</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Geowissenschaftliche Mitteilungen</t>
+  </si>
+  <si>
+    <t>ARGE GMit</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1616-3931</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>FID-GEO-DE-7</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Nr. 15.2004 -</t>
+  </si>
+  <si>
+    <t>https://e-docs.geo-leo.de/gmit;https://www.dggv.de/zeitschriften/gmit.html;http://www.bibliothek.uni-regensburg.de/ezeit/?2637592</t>
+  </si>
+  <si>
+    <t>LF;LF</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>DE-12;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-1028;DE-91;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706</t>
+  </si>
+  <si>
+    <t>3135881-0</t>
+  </si>
+  <si>
+    <t>ld;dm;la;b</t>
+  </si>
+  <si>
+    <t>Seismometrische Beobachtungen in Potsdam</t>
+  </si>
+  <si>
+    <t>Akad.-Verl.;Stankiewicz</t>
+  </si>
+  <si>
+    <t>Berlin;Potsdam</t>
+  </si>
+  <si>
+    <t>1902(1903) - 1911(1912)</t>
+  </si>
+  <si>
+    <t>https://e-docs.geo-leo.de</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2920529-3</t>
+  </si>
+  <si>
+    <t>ld;dm;b</t>
+  </si>
+  <si>
+    <t>Zeitschrift für Geophysik</t>
+  </si>
+  <si>
+    <t>Physica-Verl.</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>2921670-9</t>
+  </si>
+  <si>
+    <t>I. Jahrgang (1924/1925)-XVIII. Jahrgang (1943/1944) ; Sonderband 1953 ; Jahrgang 20 (1954)-Band 39 (1973)</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN101433392X;http://www.bibliothek.uni-regensburg.de/ezeit/?2920529</t>
+  </si>
+  <si>
+    <t>Journal of geophysics</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Berlin;Heidelberg [u.a.]</t>
+  </si>
+  <si>
+    <t>0340-062X</t>
+  </si>
+  <si>
+    <t>Volume 40 (1974)-Volume 62 (1987/1988)</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1015067948;http://www.bibliothek.uni-regensburg.de/ezeit/?2921670</t>
+  </si>
+  <si>
+    <t>2928893-9</t>
+  </si>
+  <si>
+    <t>ld;dm;d</t>
+  </si>
+  <si>
+    <t>Berliner geographische Abhandlungen</t>
+  </si>
+  <si>
+    <t>Inst. für Geographische Wissenschaften der Freien Univ. Berlin</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>Heft 1-Heft 66 (2006)</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN102052488X</t>
+  </si>
+  <si>
+    <t>2941027-7</t>
+  </si>
+  <si>
+    <t>Abhandlungen des Geographischen Instituts, Anthropogeographie</t>
+  </si>
+  <si>
+    <t>Reimer</t>
+  </si>
+  <si>
+    <t>2941128-2</t>
+  </si>
+  <si>
+    <t>Band 1-Band 2</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN102987932X</t>
+  </si>
+  <si>
+    <t>Abhandlungen Anthropogeographie</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN102991009X</t>
+  </si>
+  <si>
+    <t>2941233-X</t>
+  </si>
+  <si>
+    <t>Telma</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>910;580</t>
+  </si>
+  <si>
+    <t>Band 1 (1971)-</t>
+  </si>
+  <si>
+    <t>https://e-docs.geo-leo.de/handle/11858/6421/browse?type=series;http://www.bibliothek.uni-regensburg.de/ezeit/?2941233</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>DE-12;DE-210;DE-19;DE-862;DE-863;DE-20;DE-26;DE-1102;DE-92;DE-29;DE-946;DE-90;DE-861;DE-1028;DE-91;DE-1046;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-858;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706</t>
+  </si>
+  <si>
+    <t>2941459-3</t>
+  </si>
+  <si>
+    <t>DGMT</t>
+  </si>
+  <si>
+    <t>Beiheft zu den Berichten der Deutschen Gesellschaft für Moor- und Torfkunde</t>
+  </si>
+  <si>
+    <t>2 (1989)-5 (2015)</t>
+  </si>
+  <si>
+    <t>https://e-docs.geo-leo.de/handle/11858/6421/browse?type=series</t>
+  </si>
+  <si>
+    <t>2941476-3</t>
+  </si>
+  <si>
+    <t>Berliner geowissenschaftliche Abhandlungen</t>
+  </si>
+  <si>
+    <t>Fachbereich Geowissenschaften, FU Berlin</t>
+  </si>
+  <si>
+    <t>Geologie und Paläontologie</t>
+  </si>
+  <si>
+    <t>Band 1-Band 215</t>
+  </si>
+  <si>
+    <t>https://e-docs.geo-leo.de/handle/11858/7500;https://refubium.fu-berlin.de/handle/fub188/29691;http://resolver.sub.uni-goettingen.de/purl?PPN1030254443</t>
+  </si>
+  <si>
+    <t>LF;LF;LF</t>
+  </si>
+  <si>
+    <t>2942001-5</t>
+  </si>
+  <si>
+    <t>2942071-4</t>
+  </si>
+  <si>
+    <t>Band 44-Band 64</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1030494754</t>
+  </si>
+  <si>
+    <t>2942546-3</t>
+  </si>
+  <si>
+    <t>Band 21 ; Band 23-Band 35 ; Band 37-Band 43</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1030516626</t>
+  </si>
+  <si>
+    <t>2942435-5</t>
+  </si>
+  <si>
+    <t>Abhandlungen des Geographischen Instituts der Freien Universität Berlin</t>
+  </si>
+  <si>
+    <t>Band I-Band 6</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN103076624X</t>
+  </si>
+  <si>
+    <t>Abhandlungen des 1. Geographischen Instituts der Freien Universität Berlin</t>
+  </si>
+  <si>
+    <t>Band 7-Band 22</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1030830401</t>
+  </si>
+  <si>
+    <t>2956434-7</t>
+  </si>
+  <si>
+    <t>ld;dm;la;d</t>
+  </si>
+  <si>
+    <t>Veröffentlichungen des Kgl. Preusz. Geodätischen Institutes</t>
+  </si>
+  <si>
+    <t>Akademie-Verl.</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Neue Folge, No. 12 (1903) ; No. 16 (1904) ; No. 21 (1905) ; No. 29 (1906)-No. 30 (1907); No. 32 (1907) ; No. 35 (1908) ; No. 42 (1910) ; No. 46 (1910)-No. 47 (1910) ; No. 49 (1911)-No. 50 (1911) ; No. 55 (1912)</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN515606723</t>
+  </si>
+  <si>
+    <t>2956469-4</t>
+  </si>
+  <si>
+    <t>Veröffentlichungen der Reichsanstalt für Erdbebenforschung in Jena</t>
+  </si>
+  <si>
+    <t>Jena</t>
+  </si>
+  <si>
+    <t>3101001-5</t>
+  </si>
+  <si>
+    <t>Heft 3-Heft 4 ; Heft 8-Heft 9 ; Heft 12 ; Heft 16a-Heft 17 ; Heft 23 ; Heft 26-Heft 27 ; Heft 29-Heft 30 ; Heft 37 ; Heft 39-Heft 42 ; Heft 46</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1046850962</t>
+  </si>
+  <si>
+    <t>2956551-0</t>
+  </si>
+  <si>
+    <t>ld;la;dm;d</t>
+  </si>
+  <si>
+    <t>Abhandlungen des Sächsischen Geologischen Landesamts</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>2.1927; 4.1927; 9.1930; 11.1931; 17.1938</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1046912585</t>
+  </si>
+  <si>
+    <t>2957800-0</t>
+  </si>
+  <si>
+    <t>Mitteilungen der Reichsanstalt für Erdbebenforschung in Jena</t>
+  </si>
+  <si>
+    <t>Nr. 1; Nr. 3-Heft 6</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047454513;http://www.bibliothek.uni-regensburg.de/ezeit/?2957800</t>
+  </si>
+  <si>
+    <t>2957823-1</t>
+  </si>
+  <si>
+    <t>Veröffentlichungen des Instituts für Bodendynamik und Erdbebenforschung in Jena</t>
+  </si>
+  <si>
+    <t>Heft 59; Heft 61-Heft 63; Heft 66; Heft 69; Heft 71-Heft 77</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047462532;https://e-docs.geo-leo.de</t>
+  </si>
+  <si>
+    <t>2960039-X</t>
+  </si>
+  <si>
+    <t>Die Wissenschaft</t>
+  </si>
+  <si>
+    <t>Vieweg</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>500;510</t>
+  </si>
+  <si>
+    <t>Band 92</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047622270</t>
+  </si>
+  <si>
+    <t>2960081-9</t>
+  </si>
+  <si>
+    <t>Forschungen zur Landes- und Volkskunde</t>
+  </si>
+  <si>
+    <t>Dorn</t>
+  </si>
+  <si>
+    <t>Bremen-Horn</t>
+  </si>
+  <si>
+    <t>914.3;943</t>
+  </si>
+  <si>
+    <t>Natur, Wirtschaft, Siedlung und Planung</t>
+  </si>
+  <si>
+    <t>Band 41</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047631121</t>
+  </si>
+  <si>
+    <t>2960096-0</t>
+  </si>
+  <si>
+    <t>Schriften der Wirtschaftswissenschaftlichen Gesellschaft zum Studium Niedersachsens</t>
+  </si>
+  <si>
+    <t>2960283-X</t>
+  </si>
+  <si>
+    <t>Sammlung geologischer Führer</t>
+  </si>
+  <si>
+    <t>Borntraeger</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>ger;eng</t>
+  </si>
+  <si>
+    <t>XXXIV</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047743760</t>
+  </si>
+  <si>
+    <t>2960304-3</t>
+  </si>
+  <si>
+    <t>Archiv für Lagerstättenforschung</t>
+  </si>
+  <si>
+    <t>Heft 57</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047746670</t>
+  </si>
+  <si>
+    <t>2979379-8</t>
+  </si>
+  <si>
+    <t>Kishōchō kenkyū jihō</t>
+  </si>
+  <si>
+    <t>Kishōchō</t>
+  </si>
+  <si>
+    <t>Tōkyō</t>
+  </si>
+  <si>
+    <t>jpn</t>
+  </si>
+  <si>
+    <t>FID-GEO-DE-7;FID-ASIEN-DE-1a</t>
+  </si>
+  <si>
+    <t>60 (2008)-</t>
+  </si>
+  <si>
+    <t>https://www.jma.go.jp/jma/kishou/books/kenkyu/kenkyu.html;http://www.bibliothek.uni-regensburg.de/ezeit/?2979379</t>
+  </si>
+  <si>
+    <t>DE-7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>DE-3;DE-8;DE-9;DE-12;DE-18;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-1102;DE-92;DE-29;DE-946;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-95;DE-1046;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-830;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3</t>
+  </si>
+  <si>
+    <t>2984556-7</t>
+  </si>
+  <si>
+    <t>0722-687X</t>
+  </si>
+  <si>
+    <t>Geophysik</t>
+  </si>
+  <si>
+    <t>3009733-2</t>
+  </si>
+  <si>
+    <t>Heft 7-Band 40</t>
+  </si>
+  <si>
+    <t>Geophysikalische Abhandlungen</t>
+  </si>
+  <si>
+    <t>Heft 1-Heft 6</t>
+  </si>
+  <si>
+    <t>3010713-1</t>
+  </si>
+  <si>
+    <t>Fachbereich Geowissenschaften, FU Berlin;Reimer</t>
+  </si>
+  <si>
+    <t>0722-6888</t>
+  </si>
+  <si>
+    <t>Kartographie</t>
+  </si>
+  <si>
+    <t>Band 1-Band 18</t>
+  </si>
+  <si>
+    <t>3045459-1</t>
+  </si>
+  <si>
+    <t>D, Geoinformatik</t>
+  </si>
+  <si>
+    <t>Band 1-Band 15</t>
+  </si>
+  <si>
+    <t>https://e-docs.geo-leo.de/</t>
+  </si>
+  <si>
+    <t>3046121-2</t>
+  </si>
+  <si>
+    <t>Reihe E, Paläobiologie</t>
+  </si>
+  <si>
+    <t>Band 1-Band 36</t>
+  </si>
+  <si>
     <t>3055766-5</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -106,532 +637,10 @@
     <t>Institut für Geographische Wissenschaften</t>
   </si>
   <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>FID-GEO-DE-7</t>
-  </si>
-  <si>
     <t>Nr. 1-</t>
   </si>
   <si>
     <t>https://e-docs.geo-leo.de/handle/11858/6454</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3135881-0</t>
-  </si>
-  <si>
-    <t>ld;dm;b</t>
-  </si>
-  <si>
-    <t>Seismometrische Beobachtungen in Potsdam</t>
-  </si>
-  <si>
-    <t>Akad.-Verl.;Stankiewicz</t>
-  </si>
-  <si>
-    <t>Berlin;Potsdam</t>
-  </si>
-  <si>
-    <t>1902(1903) - 1911(1912)</t>
-  </si>
-  <si>
-    <t>https://e-docs.geo-leo.de</t>
-  </si>
-  <si>
-    <t>2637592-8</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Geowissenschaftliche Mitteilungen</t>
-  </si>
-  <si>
-    <t>ARGE GMit</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
-    <t>1616-3931</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Nr. 15.2004 -</t>
-  </si>
-  <si>
-    <t>https://e-docs.geo-leo.de/gmit;https://www.dggv.de/zeitschriften/gmit.html;http://www.bibliothek.uni-regensburg.de/ezeit/?2637592</t>
-  </si>
-  <si>
-    <t>LF;LF</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>DE-12;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-1028;DE-91;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706</t>
-  </si>
-  <si>
-    <t>2920529-3</t>
-  </si>
-  <si>
-    <t>Zeitschrift für Geophysik</t>
-  </si>
-  <si>
-    <t>Physica-Verl.</t>
-  </si>
-  <si>
-    <t>Würzburg</t>
-  </si>
-  <si>
-    <t>2921670-9</t>
-  </si>
-  <si>
-    <t>I. Jahrgang (1924/1925)-XVIII. Jahrgang (1943/1944) ; Sonderband 1953 ; Jahrgang 20 (1954)-Band 39 (1973)</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN101433392X;http://www.bibliothek.uni-regensburg.de/ezeit/?2920529</t>
-  </si>
-  <si>
-    <t>Journal of geophysics</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Berlin;Heidelberg [u.a.]</t>
-  </si>
-  <si>
-    <t>0340-062X</t>
-  </si>
-  <si>
-    <t>Volume 40 (1974)-Volume 62 (1987/1988)</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1015067948;http://www.bibliothek.uni-regensburg.de/ezeit/?2921670</t>
-  </si>
-  <si>
-    <t>2928893-9</t>
-  </si>
-  <si>
-    <t>ld;dm;d</t>
-  </si>
-  <si>
-    <t>Berliner geographische Abhandlungen</t>
-  </si>
-  <si>
-    <t>Inst. für Geographische Wissenschaften der Freien Univ. Berlin</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>Heft 1-Heft 66 (2006)</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN102052488X</t>
-  </si>
-  <si>
-    <t>2941027-7</t>
-  </si>
-  <si>
-    <t>Abhandlungen des Geographischen Instituts, Anthropogeographie</t>
-  </si>
-  <si>
-    <t>Reimer</t>
-  </si>
-  <si>
-    <t>2941128-2</t>
-  </si>
-  <si>
-    <t>Band 1-Band 2</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN102987932X</t>
-  </si>
-  <si>
-    <t>Abhandlungen Anthropogeographie</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN102991009X</t>
-  </si>
-  <si>
-    <t>2941233-X</t>
-  </si>
-  <si>
-    <t>Telma</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t>910;580</t>
-  </si>
-  <si>
-    <t>Band 1 (1971)-</t>
-  </si>
-  <si>
-    <t>https://e-docs.geo-leo.de/handle/11858/6421/browse?type=series;http://www.bibliothek.uni-regensburg.de/ezeit/?2941233</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>DE-12;DE-210;DE-19;DE-862;DE-863;DE-20;DE-26;DE-1102;DE-92;DE-29;DE-946;DE-90;DE-861;DE-1028;DE-91;DE-1046;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-858;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706</t>
-  </si>
-  <si>
-    <t>2941459-3</t>
-  </si>
-  <si>
-    <t>DGMT</t>
-  </si>
-  <si>
-    <t>Beiheft zu den Berichten der Deutschen Gesellschaft für Moor- und Torfkunde</t>
-  </si>
-  <si>
-    <t>2 (1989)-5 (2015)</t>
-  </si>
-  <si>
-    <t>https://e-docs.geo-leo.de/handle/11858/6421/browse?type=series</t>
-  </si>
-  <si>
-    <t>2941476-3</t>
-  </si>
-  <si>
-    <t>Berliner geowissenschaftliche Abhandlungen</t>
-  </si>
-  <si>
-    <t>Fachbereich Geowissenschaften, FU Berlin</t>
-  </si>
-  <si>
-    <t>Geologie und Paläontologie</t>
-  </si>
-  <si>
-    <t>Band 1-Band 215</t>
-  </si>
-  <si>
-    <t>https://e-docs.geo-leo.de/handle/11858/7500;https://refubium.fu-berlin.de/handle/fub188/29691;http://resolver.sub.uni-goettingen.de/purl?PPN1030254443</t>
-  </si>
-  <si>
-    <t>LF;LF;LF</t>
-  </si>
-  <si>
-    <t>2942001-5</t>
-  </si>
-  <si>
-    <t>2942071-4</t>
-  </si>
-  <si>
-    <t>Band 44-Band 64</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1030494754</t>
-  </si>
-  <si>
-    <t>2942546-3</t>
-  </si>
-  <si>
-    <t>Band 21 ; Band 23-Band 35 ; Band 37-Band 43</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1030516626</t>
-  </si>
-  <si>
-    <t>2942435-5</t>
-  </si>
-  <si>
-    <t>Abhandlungen des Geographischen Instituts der Freien Universität Berlin</t>
-  </si>
-  <si>
-    <t>Band I-Band 6</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN103076624X</t>
-  </si>
-  <si>
-    <t>Abhandlungen des 1. Geographischen Instituts der Freien Universität Berlin</t>
-  </si>
-  <si>
-    <t>Band 7-Band 22</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1030830401</t>
-  </si>
-  <si>
-    <t>2956434-7</t>
-  </si>
-  <si>
-    <t>Veröffentlichungen des Kgl. Preusz. Geodätischen Institutes</t>
-  </si>
-  <si>
-    <t>Akademie-Verl.</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>Neue Folge, No. 12 (1903) ; No. 16 (1904) ; No. 21 (1905) ; No. 29 (1906)-No. 30 (1907); No. 32 (1907) ; No. 35 (1908) ; No. 42 (1910) ; No. 46 (1910)-No. 47 (1910) ; No. 49 (1911)-No. 50 (1911) ; No. 55 (1912)</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN515606723</t>
-  </si>
-  <si>
-    <t>2956469-4</t>
-  </si>
-  <si>
-    <t>Veröffentlichungen der Reichsanstalt für Erdbebenforschung in Jena</t>
-  </si>
-  <si>
-    <t>Jena</t>
-  </si>
-  <si>
-    <t>3101001-5</t>
-  </si>
-  <si>
-    <t>Heft 3-Heft 4 ; Heft 8-Heft 9 ; Heft 12 ; Heft 16a-Heft 17 ; Heft 23 ; Heft 26-Heft 27 ; Heft 29-Heft 30 ; Heft 37 ; Heft 39-Heft 42 ; Heft 46</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1046850962</t>
-  </si>
-  <si>
-    <t>2956551-0</t>
-  </si>
-  <si>
-    <t>ld;la;dm;d</t>
-  </si>
-  <si>
-    <t>Abhandlungen des Sächsischen Geologischen Landesamts</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>2.1927; 4.1927; 9.1930; 11.1931; 17.1938</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1046912585</t>
-  </si>
-  <si>
-    <t>2957800-0</t>
-  </si>
-  <si>
-    <t>Mitteilungen der Reichsanstalt für Erdbebenforschung in Jena</t>
-  </si>
-  <si>
-    <t>Nr. 1; Nr. 3-Heft 6</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047454513;http://www.bibliothek.uni-regensburg.de/ezeit/?2957800</t>
-  </si>
-  <si>
-    <t>2957823-1</t>
-  </si>
-  <si>
-    <t>Veröffentlichungen des Instituts für Bodendynamik und Erdbebenforschung in Jena</t>
-  </si>
-  <si>
-    <t>Heft 59; Heft 61-Heft 63; Heft 66; Heft 69; Heft 71-Heft 77</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047462532;https://e-docs.geo-leo.de</t>
-  </si>
-  <si>
-    <t>2960039-X</t>
-  </si>
-  <si>
-    <t>Die Wissenschaft</t>
-  </si>
-  <si>
-    <t>Vieweg</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
-    <t>500;510</t>
-  </si>
-  <si>
-    <t>Band 92</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047622270</t>
-  </si>
-  <si>
-    <t>2960081-9</t>
-  </si>
-  <si>
-    <t>Forschungen zur Landes- und Volkskunde</t>
-  </si>
-  <si>
-    <t>Dorn</t>
-  </si>
-  <si>
-    <t>Bremen-Horn</t>
-  </si>
-  <si>
-    <t>914.3;943</t>
-  </si>
-  <si>
-    <t>Natur, Wirtschaft, Siedlung und Planung</t>
-  </si>
-  <si>
-    <t>Band 41</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047631121</t>
-  </si>
-  <si>
-    <t>2960096-0</t>
-  </si>
-  <si>
-    <t>Schriften der Wirtschaftswissenschaftlichen Gesellschaft zum Studium Niedersachsens</t>
-  </si>
-  <si>
-    <t>2960283-X</t>
-  </si>
-  <si>
-    <t>Sammlung geologischer Führer</t>
-  </si>
-  <si>
-    <t>Borntraeger</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>ger;eng</t>
-  </si>
-  <si>
-    <t>XXXIV</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047743760</t>
-  </si>
-  <si>
-    <t>2960304-3</t>
-  </si>
-  <si>
-    <t>Archiv für Lagerstättenforschung</t>
-  </si>
-  <si>
-    <t>Heft 57</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN1047746670</t>
-  </si>
-  <si>
-    <t>2979379-8</t>
-  </si>
-  <si>
-    <t>Kishōchō kenkyū jihō</t>
-  </si>
-  <si>
-    <t>Kishōchō</t>
-  </si>
-  <si>
-    <t>Tōkyō</t>
-  </si>
-  <si>
-    <t>jpn</t>
-  </si>
-  <si>
-    <t>FID-GEO-DE-7;FID-ASIEN-DE-1a</t>
-  </si>
-  <si>
-    <t>60 (2008)-</t>
-  </si>
-  <si>
-    <t>https://www.jma.go.jp/jma/kishou/books/kenkyu/kenkyu.html;http://www.bibliothek.uni-regensburg.de/ezeit/?2979379</t>
-  </si>
-  <si>
-    <t>DE-7</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>DE-3;DE-8;DE-9;DE-12;DE-18;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-1102;DE-92;DE-29;DE-946;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-95;DE-1046;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-830;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3</t>
-  </si>
-  <si>
-    <t>2984556-7</t>
-  </si>
-  <si>
-    <t>0722-687X</t>
-  </si>
-  <si>
-    <t>Geophysik</t>
-  </si>
-  <si>
-    <t>3009733-2</t>
-  </si>
-  <si>
-    <t>Heft 7-Band 40</t>
-  </si>
-  <si>
-    <t>Geophysikalische Abhandlungen</t>
-  </si>
-  <si>
-    <t>Heft 1-Heft 6</t>
-  </si>
-  <si>
-    <t>3010713-1</t>
-  </si>
-  <si>
-    <t>Fachbereich Geowissenschaften, FU Berlin;Reimer</t>
-  </si>
-  <si>
-    <t>0722-6888</t>
-  </si>
-  <si>
-    <t>Kartographie</t>
-  </si>
-  <si>
-    <t>Band 1-Band 18</t>
-  </si>
-  <si>
-    <t>3045459-1</t>
-  </si>
-  <si>
-    <t>D, Geoinformatik</t>
-  </si>
-  <si>
-    <t>Band 1-Band 15</t>
-  </si>
-  <si>
-    <t>https://e-docs.geo-leo.de/</t>
-  </si>
-  <si>
-    <t>3046121-2</t>
-  </si>
-  <si>
-    <t>Reihe E, Paläobiologie</t>
-  </si>
-  <si>
-    <t>Band 1-Band 36</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1081,13 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -1099,13 +1108,13 @@
         <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -1117,30 +1126,30 @@
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1152,10 +1161,10 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -1176,13 +1185,13 @@
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -1194,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
         <v>32</v>
@@ -1202,22 +1211,22 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1226,13 +1235,13 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -1247,19 +1256,19 @@
         <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
@@ -1271,21 +1280,21 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -1303,13 +1312,13 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -1324,10 +1333,10 @@
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
         <v>62</v>
@@ -1336,7 +1345,7 @@
         <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -1348,7 +1357,7 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y5" t="s">
         <v>32</v>
@@ -1356,22 +1365,22 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1380,13 +1389,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -1404,16 +1413,16 @@
         <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
         <v>32</v>
@@ -1425,7 +1434,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -1433,22 +1442,22 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1460,10 +1469,10 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -1478,19 +1487,19 @@
         <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
         <v>32</v>
@@ -1502,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y7" t="s">
         <v>32</v>
@@ -1510,22 +1519,22 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1537,10 +1546,10 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -1555,19 +1564,19 @@
         <v>32</v>
       </c>
       <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" t="s">
         <v>80</v>
       </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
-        <v>82</v>
-      </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
         <v>32</v>
@@ -1579,7 +1588,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -1587,22 +1596,22 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1614,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -1635,16 +1644,16 @@
         <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
         <v>32</v>
@@ -1656,30 +1665,30 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="Y9" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1691,13 +1700,13 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
@@ -1715,13 +1724,13 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
         <v>32</v>
@@ -1733,30 +1742,30 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1768,13 +1777,13 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
         <v>32</v>
@@ -1792,13 +1801,13 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="U11" t="s">
         <v>32</v>
@@ -1810,7 +1819,7 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y11" t="s">
         <v>32</v>
@@ -1818,22 +1827,22 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1845,13 +1854,13 @@
         <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>32</v>
@@ -1866,16 +1875,16 @@
         <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1887,7 +1896,7 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y12" t="s">
         <v>32</v>
@@ -1895,22 +1904,22 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1922,10 +1931,10 @@
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -1940,19 +1949,19 @@
         <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="Q13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" t="s">
         <v>108</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>109</v>
       </c>
-      <c r="S13" t="s">
-        <v>110</v>
-      </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1964,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -1972,22 +1981,22 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1999,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -2020,7 +2029,7 @@
         <v>107</v>
       </c>
       <c r="Q14" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
         <v>112</v>
@@ -2029,7 +2038,7 @@
         <v>113</v>
       </c>
       <c r="T14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
@@ -2041,7 +2050,7 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y14" t="s">
         <v>32</v>
@@ -2049,22 +2058,22 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -2076,10 +2085,10 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -2094,19 +2103,19 @@
         <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="R15" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" t="s">
         <v>116</v>
       </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
       <c r="T15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -2118,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y15" t="s">
         <v>32</v>
@@ -2126,22 +2135,22 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -2153,10 +2162,10 @@
         <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -2171,19 +2180,19 @@
         <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="T16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -2195,7 +2204,7 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y16" t="s">
         <v>32</v>
@@ -2203,22 +2212,22 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -2230,10 +2239,10 @@
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -2248,19 +2257,19 @@
         <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="Q17" t="s">
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -2272,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y17" t="s">
         <v>32</v>
@@ -2280,22 +2289,22 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2307,10 +2316,10 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -2325,19 +2334,19 @@
         <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="T18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U18" t="s">
         <v>32</v>
@@ -2349,7 +2358,7 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y18" t="s">
         <v>32</v>
@@ -2357,22 +2366,22 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2384,10 +2393,10 @@
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -2408,13 +2417,13 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -2426,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y19" t="s">
         <v>32</v>
@@ -2434,22 +2443,22 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2461,10 +2470,10 @@
         <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -2482,16 +2491,16 @@
         <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="R20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -2503,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -2511,22 +2520,22 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2538,10 +2547,10 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -2559,16 +2568,16 @@
         <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -2580,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y21" t="s">
         <v>32</v>
@@ -2588,22 +2597,22 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2615,13 +2624,13 @@
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
         <v>32</v>
@@ -2639,13 +2648,13 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="S22" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U22" t="s">
         <v>32</v>
@@ -2657,7 +2666,7 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y22" t="s">
         <v>32</v>
@@ -2665,22 +2674,22 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2692,37 +2701,37 @@
         <v>32</v>
       </c>
       <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" t="s">
         <v>158</v>
       </c>
-      <c r="K23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>160</v>
-      </c>
-      <c r="S23" t="s">
-        <v>161</v>
-      </c>
       <c r="T23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U23" t="s">
         <v>32</v>
@@ -2734,7 +2743,7 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y23" t="s">
         <v>32</v>
@@ -2742,25 +2751,25 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
         <v>163</v>
       </c>
-      <c r="E24" t="s">
-        <v>156</v>
-      </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -2769,10 +2778,10 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -2793,13 +2802,13 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S24" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T24" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U24" t="s">
         <v>32</v>
@@ -2811,7 +2820,7 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y24" t="s">
         <v>32</v>
@@ -2819,25 +2828,25 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
@@ -2846,10 +2855,10 @@
         <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -2870,13 +2879,13 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U25" t="s">
         <v>32</v>
@@ -2888,7 +2897,7 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y25" t="s">
         <v>32</v>
@@ -2896,25 +2905,25 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -2923,10 +2932,10 @@
         <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -2947,105 +2956,105 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="S26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="T26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="W26" t="s">
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="Y26" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>187</v>
+      </c>
+      <c r="R27" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" t="s">
-        <v>181</v>
-      </c>
-      <c r="S27" t="s">
-        <v>182</v>
-      </c>
       <c r="T27" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="U27" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="W27" t="s">
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="Y27" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3056,16 +3065,16 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -3074,16 +3083,16 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L28" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="M28" t="s">
         <v>32</v>
@@ -3095,19 +3104,19 @@
         <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="s">
         <v>190</v>
       </c>
-      <c r="R28" t="s">
-        <v>191</v>
-      </c>
       <c r="S28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
         <v>32</v>
@@ -3119,7 +3128,7 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y28" t="s">
         <v>32</v>
@@ -3127,22 +3136,22 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
         <v>192</v>
       </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3151,16 +3160,16 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="M29" t="s">
         <v>32</v>
@@ -3172,19 +3181,19 @@
         <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="s">
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U29" t="s">
         <v>32</v>
@@ -3196,7 +3205,7 @@
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y29" t="s">
         <v>32</v>
@@ -3204,22 +3213,22 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3228,13 +3237,13 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
         <v>197</v>
@@ -3258,10 +3267,10 @@
         <v>198</v>
       </c>
       <c r="S30" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
         <v>32</v>
@@ -3273,7 +3282,7 @@
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y30" t="s">
         <v>32</v>
@@ -3281,22 +3290,22 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -3308,13 +3317,13 @@
         <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s">
         <v>32</v>
@@ -3332,13 +3341,13 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U31" t="s">
         <v>32</v>
@@ -3350,7 +3359,7 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y31" t="s">
         <v>32</v>
@@ -3364,16 +3373,16 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -3385,13 +3394,13 @@
         <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>32</v>
@@ -3409,13 +3418,13 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S32" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="T32" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U32" t="s">
         <v>32</v>
@@ -3427,7 +3436,7 @@
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y32" t="s">
         <v>32</v>
